--- a/migforecasting/cities19-21/3/d5.xlsx
+++ b/migforecasting/cities19-21/3/d5.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
   <si>
     <t>НАСЕЛЕНИЕ</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>ОСНОВНЫЕ ФОНДЫ</t>
-  </si>
-  <si>
-    <t>Инвестиции в основной капитал (в фактически  действовавших ценах), млн руб.</t>
   </si>
   <si>
     <t>больничных организаций, коек</t>
@@ -148,9 +145,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Средний размер назначенных пенсий, руб. </t>
-  </si>
-  <si>
     <t>Число мест в организациях, осуществляющих  образовательную деятельность по образовательным  программам дошкольного образования, присмотр и уход за детьми, тыс.</t>
   </si>
   <si>
@@ -189,161 +183,11 @@
     </r>
   </si>
   <si>
-    <t>СОЦИАЛЬНО-ЭКОНОМИЧЕСКАЯ ХАРАКТЕРИСТИКА Г. ВЛАДИКАВКАЗА</t>
-  </si>
-  <si>
-    <r>
-      <t>трудоспособном</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1)</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Число родившихся на 1 000 человек населения </t>
   </si>
   <si>
-    <t>Естественный прирост, убыль (-) на 1 000 человек населения</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Миграционный прирост, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">убыль (-) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>населения, человек</t>
-    </r>
-  </si>
-  <si>
-    <t>-1 830</t>
-  </si>
-  <si>
-    <t>-1 647</t>
-  </si>
-  <si>
-    <t>-1 866</t>
-  </si>
-  <si>
-    <r>
-      <t>Среднегодовая численность работников организаций</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>,  тыс. человек</t>
-    </r>
-  </si>
-  <si>
-    <t>Численность незанятых граждан, состоящих на учете  в органах службы занятости населения, человек</t>
-  </si>
-  <si>
-    <t>1 980</t>
-  </si>
-  <si>
-    <t>1 943</t>
-  </si>
-  <si>
-    <r>
-      <t>Среднемесячная номинальная начисленная заработная плата работников организаций</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>32 202,2</t>
-  </si>
-  <si>
-    <t>13 651,3</t>
-  </si>
-  <si>
-    <t>3 424</t>
-  </si>
-  <si>
-    <t>3 517</t>
-  </si>
-  <si>
-    <t>3 388</t>
-  </si>
-  <si>
-    <t>4 847</t>
-  </si>
-  <si>
-    <t>4 827</t>
-  </si>
-  <si>
-    <t>4 483</t>
-  </si>
-  <si>
-    <t>48 074</t>
-  </si>
-  <si>
-    <t>45 696</t>
-  </si>
-  <si>
-    <t>2 378</t>
-  </si>
-  <si>
-    <r>
-      <t>ИНВЕСТИЦИИ</t>
+    <r>
+      <t>СОЦИАЛЬНО-ЭКОНОМИЧЕСКАЯ ХАРАКТЕРИСТИКА г. ГРОЗНОГО</t>
     </r>
     <r>
       <rPr>
@@ -355,18 +199,23 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>2)</t>
-    </r>
-  </si>
-  <si>
-    <t>8 588,2</t>
-  </si>
-  <si>
-    <t>Удельный вес инвестиций в основной капитал,  финансируемых за счет бюджетных средств,  в общем объеме инвестиций, процентов</t>
-  </si>
-  <si>
-    <r>
-      <t>Наличие основных фондов организаций</t>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Численность населения</t>
     </r>
     <r>
       <rPr>
@@ -377,7 +226,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>3);4)</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -387,15 +236,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> (на конец года),  млн руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>127 972,9</t>
-  </si>
-  <si>
-    <r>
-      <t>Ввод в действие основных фондов</t>
+      <t>(оценка на конец года), тыс. человек</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>трудоспособном</t>
     </r>
     <r>
       <rPr>
@@ -406,25 +252,21 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, млн руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>12 775,2</t>
-  </si>
-  <si>
-    <r>
-      <t>Степень износа основных фондов (на конец года)</t>
+      <t>2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Естественный прирост на 1 000 человек населения</t>
+  </si>
+  <si>
+    <t>Миграционный прирост, убыль (-) населения, человек</t>
+  </si>
+  <si>
+    <t>-1 455</t>
+  </si>
+  <si>
+    <r>
+      <t>Среднегодовая численность работников  организаций</t>
     </r>
     <r>
       <rPr>
@@ -435,7 +277,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>5)</t>
+      <t>3)</t>
     </r>
     <r>
       <rPr>
@@ -445,12 +287,15 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>,  процентов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Удельный вес полностью изношенных основных фондов  в общем объеме основных фондов</t>
+      <t>,  тыс. человек</t>
+    </r>
+  </si>
+  <si>
+    <t>Численность незанятых граждан, состоящих на учете  в органах службы занятости населения в целях поиска  подходящей работы (на конец года), тыс. человек</t>
+  </si>
+  <si>
+    <r>
+      <t>Среднемесячная номинальная начисленная заработная плата работников организаций</t>
     </r>
     <r>
       <rPr>
@@ -461,7 +306,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>5)</t>
+      <t>3)</t>
     </r>
     <r>
       <rPr>
@@ -471,83 +316,74 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>, процентов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Число предприятий и организаций</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (на конец года;  по данным государственной регистрации)</t>
-    </r>
-  </si>
-  <si>
-    <t>5 882</t>
-  </si>
-  <si>
-    <r>
-      <t>ПРОМЫШЛЕННОЕ ПРОИЗВОДСТВО</t>
+      <t>, руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>35 921,2</t>
+  </si>
+  <si>
+    <t>38 637,9</t>
+  </si>
+  <si>
+    <t>39 455,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средний размер назначенных пенсий , руб. </t>
+  </si>
+  <si>
+    <t>12 696</t>
+  </si>
+  <si>
+    <t>2 499</t>
+  </si>
+  <si>
+    <t>5 217</t>
+  </si>
+  <si>
+    <t>55 166</t>
+  </si>
+  <si>
+    <t>50 428</t>
+  </si>
+  <si>
+    <t>4 738</t>
+  </si>
+  <si>
+    <t>1 284</t>
+  </si>
+  <si>
+    <t>2 043</t>
+  </si>
+  <si>
+    <r>
+      <t>ИНВЕСТИЦИИ</t>
     </r>
     <r>
       <rPr>
         <b/>
         <vertAlign val="superscript"/>
         <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Объем отгруженных товаров собственного производства, выполненных работ и услуг собственными силами  по видам</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> экономической</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> деятельности, млн руб.: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>добыча полезных ископаемых</t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Инвестиции в основной капитал (в фактически  действовавших ценах), млн руб. </t>
+  </si>
+  <si>
+    <t>22 468,0</t>
+  </si>
+  <si>
+    <t>Удельный вес инвестиций в основной капитал, финансируемых за счет бюджетных средств, в общем объеме инвестиций, процентов</t>
+  </si>
+  <si>
+    <r>
+      <t>Наличие основных фондов организаций</t>
     </r>
     <r>
       <rPr>
@@ -558,44 +394,25 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>7)</t>
-    </r>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>10 534,3</t>
-  </si>
-  <si>
-    <t>5 636,3</t>
-  </si>
-  <si>
-    <t>1 492,2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Объем работ, выполненных по виду </t>
+      <t>4); 5)</t>
     </r>
     <r>
       <rPr>
         <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">экономической </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>деятельности «Строительство»</t>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (на конец года),  млн руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>389 388,9</t>
+  </si>
+  <si>
+    <r>
+      <t>Ввод в действие основных фондов</t>
     </r>
     <r>
       <rPr>
@@ -606,7 +423,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">2) </t>
+      <t>4)</t>
     </r>
     <r>
       <rPr>
@@ -616,30 +433,15 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>(в фактически действовавших ценах),  млн руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>4 252,5</t>
-  </si>
-  <si>
-    <t>2 168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ввод в действие мощностей: </t>
-  </si>
-  <si>
-    <t>дошкольных общеобразовательных организаций, ученических мест</t>
-  </si>
-  <si>
-    <t>2 150</t>
-  </si>
-  <si>
-    <t>рынков и павильонов, мест</t>
-  </si>
-  <si>
-    <r>
-      <t>торговых предприятий, торговая площадь, тыс. м</t>
+      <t>, млн руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>34 985,9</t>
+  </si>
+  <si>
+    <r>
+      <t>Степень износа основных фондов (на конец года)</t>
     </r>
     <r>
       <rPr>
@@ -650,12 +452,51 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ТОРГОВЛЯ</t>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>,  процентов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Удельный вес полностью изношенных основных фондов  в общем объеме основных фондов</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, процентов</t>
+    </r>
+  </si>
+  <si>
+    <t>Число предприятий и организаций (на конец года;  по данным государственной регистрации)</t>
+  </si>
+  <si>
+    <r>
+      <t>ПРОМЫШЛЕННОЕ ПРОИЗВОДСТВО</t>
     </r>
     <r>
       <rPr>
@@ -667,39 +508,97 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>2)</t>
-    </r>
-  </si>
-  <si>
-    <t>Оборот розничной торговли (в фактически действовавших  ценах), млн руб.</t>
-  </si>
-  <si>
-    <t>13 445,8</t>
-  </si>
-  <si>
-    <t>Оборот общественного питания (в фактически действовавших ценах), млн руб.</t>
-  </si>
-  <si>
-    <t>Индекс физического объема оборота общественного питания,  в процентах к предыдущему году</t>
-  </si>
-  <si>
-    <r>
-      <t>1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2019, 2020 гг. –  мужчины в возрасте 16 – 60 лет, женщины 16 – 55 лет; 2021 г. –  мужчины в возрасте 16 – 61 лет, женщины 16 – 56 лет.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2)</t>
+      <t>3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Объем отгруженных товаров собственного производства, выполненных работ и услуг собственными силами по видам экономической деятельности, млн руб.:</t>
+  </si>
+  <si>
+    <t>добыча полезных ископаемых</t>
+  </si>
+  <si>
+    <t>4 762,1</t>
+  </si>
+  <si>
+    <r>
+      <t>Объем работ, выполненных по виду экономической  деятельности «Строительство»</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (в фактически  действовавших ценах), млн руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>3 229,5</t>
+  </si>
+  <si>
+    <t>1 743</t>
+  </si>
+  <si>
+    <t>3 345</t>
+  </si>
+  <si>
+    <t>Ввод в действие мощностей:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">дошкольных организаций, мест </t>
+  </si>
+  <si>
+    <t>общеобразовательных организаций,  ученических мест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">амбулаторно-поликлинических организаций </t>
+  </si>
+  <si>
+    <r>
+      <t>ТОРГОВЛЯ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Оборот розничной торговли (в фактически действовавших  ценах), млн. руб.</t>
+  </si>
+  <si>
+    <t>4 553,8</t>
+  </si>
+  <si>
+    <t>Оборот общественного питания (в фактически  действовавших ценах), млн руб.</t>
+  </si>
+  <si>
+    <t>Индекс физического объема оборота общественного  питания, в процентах к предыдущему году</t>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
     </r>
     <r>
       <rPr>
@@ -709,12 +608,37 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> Без субъектов малого предпринимательства.</t>
+      <t> По городскому округу.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> 2019, 2020 гг. –  мужчины в возрасте 16 – 60 лет, женщины 16 – 55 лет; 2021 г. –  мужчины в возрасте 16 – 61 лет, женщины 16 – 56 лет.</t>
     </r>
   </si>
   <si>
     <r>
       <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> </t>
     </r>
     <r>
       <rPr>
@@ -724,7 +648,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> По полной учетной стоимости; по коммерческим, без субъектов малого предпринимательства, и некоммерческим организациям.</t>
+      <t>Без субъектов малого предпринимательства.</t>
     </r>
   </si>
   <si>
@@ -739,7 +663,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> С учетом переоценки, проведенной на конец года коммерческими (без субъектов малого предпринимательства)</t>
+      <t> По полной учетной стоимости; по коммерческим, без субъектов малого предпринимательства, и некоммерческим организациям.</t>
     </r>
     <r>
       <rPr>
@@ -749,7 +673,12 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> и некоммерческими организациями</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
     </r>
     <r>
       <rPr>
@@ -759,12 +688,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5)</t>
+      <t> С учетом переоценки, проведенной на конец года коммерческими (без субъектов малого предпринимательства)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> и некоммерческими организациями</t>
     </r>
     <r>
       <rPr>
@@ -774,7 +708,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> По коммерческим организациям, без субъектов малого предпринимательства.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -789,72 +723,11 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Без филиалов и представительств.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>7)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Данные не публикуются в целях обеспечения конфиденциальности первичных статистических данных, полученных от организаций, в соответствии с Федеральным  законом от 29 ноября 2007 г. № 282-ФЗ « Об официальном статистическом учете и системе государственной статистики в Российской Федерации» (п.5 ст.4, ч.1 ст.9).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Численность населения</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>(оценка на конец года), тыс. человек</t>
-    </r>
-  </si>
-  <si>
-    <t>Владикавказ</t>
+      <t> По коммерческим организациям, без субъектов малого предпринимательства.</t>
+    </r>
+  </si>
+  <si>
+    <t>Грозный</t>
   </si>
 </sst>
 </file>
@@ -864,7 +737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,14 +777,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -931,30 +796,6 @@
       <vertAlign val="superscript"/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1146,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1172,21 +1013,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
@@ -1205,58 +1037,46 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1563,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,16 +1396,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="A1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B2" s="6">
         <v>2019</v>
@@ -1598,987 +1418,970 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="14">
-        <v>303.60000000000002</v>
-      </c>
-      <c r="C4" s="14">
-        <v>301.5</v>
-      </c>
-      <c r="D4" s="15">
-        <v>298.8</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11">
+        <v>321.8</v>
+      </c>
+      <c r="C4" s="11">
+        <v>324.60000000000002</v>
+      </c>
+      <c r="D4" s="12">
+        <v>326.39999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14">
-        <v>60.9</v>
-      </c>
-      <c r="C6" s="14">
-        <v>60.8</v>
-      </c>
-      <c r="D6" s="15">
-        <v>60.6</v>
+      <c r="B6" s="11">
+        <v>99.6</v>
+      </c>
+      <c r="C6" s="11">
+        <v>100.8</v>
+      </c>
+      <c r="D6" s="12">
+        <v>101.1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14">
-        <v>24.8</v>
-      </c>
-      <c r="C7" s="14">
-        <v>24</v>
-      </c>
-      <c r="D7" s="15">
-        <v>23</v>
+      <c r="B7" s="11">
+        <v>41.3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="D7" s="12">
+        <v>40.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="14">
-        <v>170.4</v>
-      </c>
-      <c r="C8" s="14">
-        <v>168.3</v>
-      </c>
-      <c r="D8" s="15">
-        <v>169.7</v>
+      <c r="B8" s="11">
+        <v>190.7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>194.9</v>
+      </c>
+      <c r="D8" s="12">
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14">
-        <v>72.3</v>
-      </c>
-      <c r="C9" s="14">
-        <v>72.5</v>
-      </c>
-      <c r="D9" s="15">
-        <v>68.5</v>
+      <c r="B9" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="C9" s="11">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12">
+        <v>26.4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="14">
-        <v>11.8</v>
-      </c>
-      <c r="C10" s="14">
-        <v>11.6</v>
-      </c>
-      <c r="D10" s="15">
-        <v>11.9</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="11">
+        <v>21.6</v>
+      </c>
+      <c r="C10" s="11">
+        <v>20.3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="14">
-        <v>10.1</v>
-      </c>
-      <c r="C11" s="14">
-        <v>12.8</v>
-      </c>
-      <c r="D11" s="15">
-        <v>14.7</v>
+      <c r="B11" s="11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C11" s="11">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D11" s="12">
+        <v>9.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11">
+        <v>17</v>
+      </c>
+      <c r="C12" s="11">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="C12" s="14">
-        <v>-1.2</v>
-      </c>
-      <c r="D12" s="15">
-        <v>-2.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="15">
+        <v>-508</v>
+      </c>
+      <c r="C13" s="15">
+        <v>-731</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="14" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="14">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="C15" s="14">
-        <v>66.2</v>
-      </c>
-      <c r="D15" s="15">
-        <v>66.400000000000006</v>
+        <v>47</v>
+      </c>
+      <c r="B15" s="11">
+        <v>82.5</v>
+      </c>
+      <c r="C15" s="11">
+        <v>84</v>
+      </c>
+      <c r="D15" s="12">
+        <v>85.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="18">
-        <v>7906</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1792</v>
+      <c r="A16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C16" s="11">
+        <v>24.3</v>
+      </c>
+      <c r="D16" s="12">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="18">
-        <v>7799</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1752</v>
+      <c r="B17" s="11">
+        <v>9800</v>
+      </c>
+      <c r="C17" s="11">
+        <v>23700</v>
+      </c>
+      <c r="D17" s="12">
+        <v>10200</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="14">
-        <v>34702.800000000003</v>
-      </c>
-      <c r="D19" s="15">
-        <v>37007.199999999997</v>
+        <v>49</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="14">
-        <v>14312.9</v>
-      </c>
-      <c r="D20" s="15">
-        <v>15233.7</v>
+        <v>53</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="15">
+        <v>13415</v>
+      </c>
+      <c r="D20" s="16">
+        <v>14721</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="14">
-        <v>91.5</v>
-      </c>
-      <c r="C21" s="14">
-        <v>90</v>
-      </c>
-      <c r="D21" s="15">
-        <v>87</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="11">
+        <v>80.2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>83.7</v>
+      </c>
+      <c r="D21" s="12">
+        <v>85.1</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="14">
-        <v>36.4</v>
-      </c>
-      <c r="C22" s="14">
-        <v>37.1</v>
-      </c>
-      <c r="D22" s="15">
-        <v>38.200000000000003</v>
+        <v>34</v>
+      </c>
+      <c r="B22" s="11">
+        <v>27.4</v>
+      </c>
+      <c r="C22" s="11">
+        <v>28.1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>28.2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="14">
-        <v>14.3</v>
-      </c>
-      <c r="C23" s="14">
-        <v>14.04</v>
-      </c>
-      <c r="D23" s="15">
-        <v>14.3</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="11">
+        <v>15.3</v>
+      </c>
+      <c r="C23" s="11">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D23" s="12">
+        <v>16.2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="14">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="C24" s="14">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D24" s="15">
-        <v>17</v>
+        <v>36</v>
+      </c>
+      <c r="B24" s="11">
+        <v>22.6</v>
+      </c>
+      <c r="C24" s="11">
+        <v>23.9</v>
+      </c>
+      <c r="D24" s="12">
+        <v>24.2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>59</v>
+      <c r="B26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2837</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2954</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="14">
-        <v>112.8</v>
-      </c>
-      <c r="C27" s="14">
-        <v>116.6</v>
-      </c>
-      <c r="D27" s="15">
-        <v>113.4</v>
+      <c r="B27" s="11">
+        <v>81.7</v>
+      </c>
+      <c r="C27" s="11">
+        <v>87.4</v>
+      </c>
+      <c r="D27" s="12">
+        <v>90.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>62</v>
+      <c r="B29" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="15">
+        <v>6143</v>
+      </c>
+      <c r="D29" s="16">
+        <v>7540</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="14">
-        <v>159.69999999999999</v>
-      </c>
-      <c r="C30" s="14">
-        <v>160.1</v>
-      </c>
-      <c r="D30" s="15">
-        <v>150</v>
+      <c r="B30" s="11">
+        <v>170.5</v>
+      </c>
+      <c r="C30" s="11">
+        <v>189.2</v>
+      </c>
+      <c r="D30" s="12">
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="18">
-        <v>20</v>
-      </c>
-      <c r="C31" s="18">
-        <v>20</v>
-      </c>
-      <c r="D31" s="19">
-        <v>18</v>
+      <c r="B31" s="15">
+        <v>21</v>
+      </c>
+      <c r="C31" s="15">
+        <v>24</v>
+      </c>
+      <c r="D31" s="16">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="C33" s="14">
-        <v>4.8</v>
-      </c>
-      <c r="D33" s="15">
-        <v>3.5</v>
+      <c r="B33" s="11">
+        <v>5.2</v>
+      </c>
+      <c r="C33" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="D33" s="12">
+        <v>5.4</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="14">
-        <v>139.69999999999999</v>
-      </c>
-      <c r="C34" s="14">
-        <v>157.9</v>
-      </c>
-      <c r="D34" s="15">
-        <v>117.1</v>
+      <c r="B34" s="11">
+        <v>170</v>
+      </c>
+      <c r="C34" s="11">
+        <v>166</v>
+      </c>
+      <c r="D34" s="12">
+        <v>165.2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="18">
-        <v>43</v>
-      </c>
-      <c r="C35" s="18">
-        <v>45</v>
-      </c>
-      <c r="D35" s="19">
-        <v>45</v>
+      <c r="B35" s="15">
+        <v>48</v>
+      </c>
+      <c r="C35" s="15">
+        <v>50</v>
+      </c>
+      <c r="D35" s="16">
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="14">
-        <v>9.5</v>
-      </c>
-      <c r="C37" s="14">
-        <v>9.6</v>
-      </c>
-      <c r="D37" s="15">
-        <v>9.3000000000000007</v>
+      <c r="B37" s="11">
+        <v>13.7</v>
+      </c>
+      <c r="C37" s="11">
+        <v>12.3</v>
+      </c>
+      <c r="D37" s="12">
+        <v>10.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="14">
-        <v>314.2</v>
-      </c>
-      <c r="C38" s="14">
-        <v>319.3</v>
-      </c>
-      <c r="D38" s="15">
-        <v>309.7</v>
+      <c r="B38" s="15">
+        <v>449</v>
+      </c>
+      <c r="C38" s="15">
+        <v>378.1</v>
+      </c>
+      <c r="D38" s="16">
+        <v>321.39999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="18">
-        <v>56792</v>
-      </c>
-      <c r="D39" s="19">
-        <v>131808</v>
+      <c r="B39" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="15">
+        <v>65057</v>
+      </c>
+      <c r="D39" s="16">
+        <v>84589</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="18">
-        <v>54314</v>
-      </c>
-      <c r="D41" s="19">
-        <v>127032</v>
+      <c r="B41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="15">
+        <v>63773</v>
+      </c>
+      <c r="D41" s="16">
+        <v>82546</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="18">
-        <v>2478</v>
-      </c>
-      <c r="D42" s="19">
-        <v>4776</v>
+      <c r="B42" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
+      <c r="A43" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="14">
-        <v>10008.1</v>
-      </c>
-      <c r="D44" s="15">
-        <v>11256.5</v>
+        <v>63</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="11">
+        <v>29041.5</v>
+      </c>
+      <c r="D44" s="12">
+        <v>28868.400000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="14">
-        <v>54.6</v>
-      </c>
-      <c r="C45" s="14">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="D45" s="15">
-        <v>60.4</v>
+        <v>65</v>
+      </c>
+      <c r="B45" s="11">
+        <v>33.1</v>
+      </c>
+      <c r="C45" s="11">
+        <v>49.6</v>
+      </c>
+      <c r="D45" s="12">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="14">
-        <v>42.5</v>
-      </c>
-      <c r="C47" s="14">
-        <v>60.5</v>
-      </c>
-      <c r="D47" s="15">
-        <v>49.7</v>
+      <c r="B47" s="11">
+        <v>28.3</v>
+      </c>
+      <c r="C47" s="11">
+        <v>43.5</v>
+      </c>
+      <c r="D47" s="12">
+        <v>38.4</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="14">
-        <v>11.3</v>
-      </c>
-      <c r="C48" s="14">
-        <v>9</v>
-      </c>
-      <c r="D48" s="15">
-        <v>9.6</v>
+      <c r="B48" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="C48" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="D48" s="12">
+        <v>5.7</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="29"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="14">
-        <v>170826.7</v>
-      </c>
-      <c r="D50" s="15">
-        <v>185303.2</v>
+        <v>66</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="11">
+        <v>388409.2</v>
+      </c>
+      <c r="D50" s="12">
+        <v>403041</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="14">
-        <v>41783.800000000003</v>
-      </c>
-      <c r="D51" s="15">
-        <v>9654.1</v>
+        <v>68</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="11">
+        <v>16486.7</v>
+      </c>
+      <c r="D51" s="12">
+        <v>15759.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="14">
-        <v>49.6</v>
-      </c>
-      <c r="C52" s="14">
-        <v>28.4</v>
-      </c>
-      <c r="D52" s="15">
-        <v>28.8</v>
+        <v>70</v>
+      </c>
+      <c r="B52" s="11">
+        <v>55</v>
+      </c>
+      <c r="C52" s="11">
+        <v>55.8</v>
+      </c>
+      <c r="D52" s="12">
+        <v>58.8</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="14">
-        <v>14</v>
-      </c>
-      <c r="C53" s="14">
-        <v>11.1</v>
-      </c>
-      <c r="D53" s="15">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="B53" s="11">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="C53" s="11">
+        <v>15.5</v>
+      </c>
+      <c r="D53" s="12">
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+      <c r="A54" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="18">
-        <v>5580</v>
-      </c>
-      <c r="D55" s="19">
-        <v>5435</v>
+        <v>72</v>
+      </c>
+      <c r="B55" s="15">
+        <v>5491</v>
+      </c>
+      <c r="C55" s="15">
+        <v>5093</v>
+      </c>
+      <c r="D55" s="16">
+        <v>4881</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
+      <c r="A56" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="11"/>
+        <v>74</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="11">
+        <v>4089.4</v>
+      </c>
+      <c r="D58" s="12">
+        <v>3959.2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="14">
-        <v>10105.200000000001</v>
-      </c>
-      <c r="D59" s="15">
-        <v>11964.6</v>
+      <c r="B59" s="11">
+        <v>895</v>
+      </c>
+      <c r="C59" s="11">
+        <v>999.4</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1017.5</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="14">
-        <v>14024.9</v>
-      </c>
-      <c r="D60" s="15">
-        <v>15855.8</v>
+      <c r="A60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="11">
+        <v>14605.2</v>
+      </c>
+      <c r="C60" s="11">
+        <v>17440.7</v>
+      </c>
+      <c r="D60" s="12">
+        <v>20567.900000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="14">
-        <v>835.5</v>
-      </c>
-      <c r="C61" s="14">
-        <v>913.3</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>83</v>
+      <c r="A61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="11">
+        <v>815.4</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1656.1</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1726.4</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="14">
-        <v>626.6</v>
-      </c>
-      <c r="D63" s="15">
-        <v>540.70000000000005</v>
+        <v>77</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="11">
+        <v>2227.4</v>
+      </c>
+      <c r="D63" s="12">
+        <v>4855.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="14">
-        <v>164.4</v>
-      </c>
-      <c r="C64" s="14">
-        <v>168.5</v>
-      </c>
-      <c r="D64" s="15">
-        <v>155.30000000000001</v>
+        <v>39</v>
+      </c>
+      <c r="B64" s="11">
+        <v>169.2</v>
+      </c>
+      <c r="C64" s="11">
+        <v>109.3</v>
+      </c>
+      <c r="D64" s="12">
+        <v>333.6</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="14">
-        <v>232.4</v>
-      </c>
-      <c r="D65" s="15">
-        <v>175.5</v>
+      <c r="B65" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="11">
+        <v>743</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="18">
-        <v>720</v>
-      </c>
-      <c r="C67" s="18">
-        <v>55</v>
-      </c>
-      <c r="D67" s="19">
-        <v>390</v>
+        <v>82</v>
+      </c>
+      <c r="B67" s="15">
+        <v>340</v>
+      </c>
+      <c r="C67" s="15">
+        <v>140</v>
+      </c>
+      <c r="D67" s="16">
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="18">
-        <v>500</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>20</v>
+        <v>83</v>
+      </c>
+      <c r="B68" s="15">
+        <v>580</v>
+      </c>
+      <c r="C68" s="15">
+        <v>960</v>
+      </c>
+      <c r="D68" s="16">
+        <v>8508</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" s="15">
+        <v>597</v>
+      </c>
+      <c r="C69" s="15">
+        <v>100</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="15">
+        <v>420</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>20</v>
+      <c r="D70" s="16">
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="24"/>
+      <c r="A71" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="14">
-        <v>16443</v>
-      </c>
-      <c r="D72" s="15">
-        <v>20163.5</v>
+        <v>86</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="11">
+        <v>4808.5</v>
+      </c>
+      <c r="D72" s="12">
+        <v>6866.1</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="14">
-        <v>114.3</v>
-      </c>
-      <c r="C73" s="14">
-        <v>118</v>
-      </c>
-      <c r="D73" s="15">
-        <v>112.9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="11">
+        <v>96.3</v>
+      </c>
+      <c r="C73" s="11">
+        <v>105.6</v>
+      </c>
+      <c r="D73" s="12">
+        <v>142.80000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="14">
-        <v>422.4</v>
-      </c>
-      <c r="C74" s="14">
-        <v>313.60000000000002</v>
-      </c>
-      <c r="D74" s="15">
-        <v>716.3</v>
+        <v>88</v>
+      </c>
+      <c r="B74" s="11">
+        <v>28</v>
+      </c>
+      <c r="C74" s="11">
+        <v>23.6</v>
+      </c>
+      <c r="D74" s="12">
+        <v>32.4</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="16">
-        <v>81.2</v>
-      </c>
-      <c r="C75" s="16">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="D75" s="17">
-        <v>222.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-    </row>
-    <row r="77" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-    </row>
-    <row r="78" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-    </row>
-    <row r="79" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-    </row>
-    <row r="80" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-    </row>
-    <row r="81" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-    </row>
-    <row r="82" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-    </row>
-    <row r="83" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:4" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>89</v>
+      </c>
+      <c r="B75" s="13">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="C75" s="13">
+        <v>84.3</v>
+      </c>
+      <c r="D75" s="14">
+        <v>137.30000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+    </row>
+    <row r="81" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+    </row>
+    <row r="82" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
+  <mergeCells count="10">
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
@@ -2588,11 +2391,7 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A80:D80"/>
     <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
